--- a/data/trans_orig/P56S2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P56S2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5851240B-CFC0-4D60-BCA4-08A69A25F62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39421070-D262-4951-92B6-38B73CD721BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6A0264B-D75A-450D-9153-77B5286A2BAF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E0D00EE-63BD-409D-90E4-70F16EB71AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="498">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,06%)</t>
   </si>
@@ -521,7 +521,7 @@
     <t>19,57%</t>
   </si>
   <si>
-    <t>69,08%</t>
+    <t>75,26%</t>
   </si>
   <si>
     <t>31,52%</t>
@@ -530,13 +530,13 @@
     <t>13,02%</t>
   </si>
   <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
   </si>
   <si>
     <t>68,48%</t>
@@ -545,7 +545,7 @@
     <t>28,28%</t>
   </si>
   <si>
-    <t>78,66%</t>
+    <t>67,11%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -584,31 +584,31 @@
     <t>11,96%</t>
   </si>
   <si>
-    <t>49,46%</t>
+    <t>71,12%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>76,07%</t>
+    <t>87,49%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>74,53%</t>
+    <t>70,93%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>88,54%</t>
+    <t>75,31%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>79,33%</t>
+    <t>70,42%</t>
   </si>
   <si>
     <t>20,81%</t>
@@ -620,7 +620,7 @@
     <t>18,32%</t>
   </si>
   <si>
-    <t>79,06%</t>
+    <t>71,56%</t>
   </si>
   <si>
     <t>35,97%</t>
@@ -632,7 +632,7 @@
     <t>31,67%</t>
   </si>
   <si>
-    <t>85,96%</t>
+    <t>87,12%</t>
   </si>
   <si>
     <t>10,11%</t>
@@ -644,883 +644,889 @@
     <t>8,29%</t>
   </si>
   <si>
-    <t>36,72%</t>
+    <t>36,59%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>7,98%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
   </si>
   <si>
     <t>0,91%</t>
@@ -1938,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A67A024-A2CD-4B56-8D27-1E61F33DA418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54450767-700C-43EA-9029-75125FCCC9C8}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4963,7 +4969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A06EA3-B243-4A55-B468-73E0488A070D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE76025-1779-4A6F-BA67-4C74DCFF3E5B}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8128,7 +8134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B0A696-ED40-4F8A-9474-F57BEA524182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008C88E0-2E09-44A9-BA8A-8164CC73020C}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11068,7 +11074,7 @@
         <v>22</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -11077,13 +11083,13 @@
         <v>1213</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -11098,13 +11104,13 @@
         <v>1868</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -11113,13 +11119,13 @@
         <v>3302</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M60" s="7">
         <v>4</v>
@@ -11128,13 +11134,13 @@
         <v>5169</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P60" s="7" t="s">
+      <c r="Q60" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -11149,13 +11155,13 @@
         <v>3521</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -11164,13 +11170,13 @@
         <v>1022</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M61" s="7">
         <v>5</v>
@@ -11179,13 +11185,13 @@
         <v>4542</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P61" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P61" s="7" t="s">
+      <c r="Q61" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -11313,7 +11319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5E4F43-10CD-401E-AFCC-24803F466ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C25F938-751E-4FE6-A9D4-8F8B88BECA3C}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11330,7 +11336,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11458,22 +11464,22 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -11503,13 +11509,13 @@
         <v>437</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -11518,13 +11524,13 @@
         <v>437</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11554,13 +11560,13 @@
         <v>583</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -11569,7 +11575,7 @@
         <v>583</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>22</v>
@@ -11713,22 +11719,22 @@
         <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11764,22 +11770,22 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11866,22 +11872,22 @@
         <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -12467,7 +12473,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -12518,7 +12524,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -12569,7 +12575,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -12686,7 +12692,7 @@
         <v>319</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -12695,13 +12701,13 @@
         <v>8267</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12722,7 +12728,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -12731,13 +12737,13 @@
         <v>1660</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -12746,13 +12752,13 @@
         <v>1660</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12767,13 +12773,13 @@
         <v>5057</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -12782,13 +12788,13 @@
         <v>10980</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -12797,13 +12803,13 @@
         <v>16037</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12818,13 +12824,13 @@
         <v>825</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -12833,13 +12839,13 @@
         <v>3363</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -12848,13 +12854,13 @@
         <v>4188</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12875,7 +12881,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -12979,37 +12985,37 @@
         <v>23</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -13030,37 +13036,37 @@
         <v>23</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -13081,37 +13087,37 @@
         <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13126,13 +13132,13 @@
         <v>2044</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -13141,13 +13147,13 @@
         <v>8369</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -13156,13 +13162,13 @@
         <v>10412</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13177,13 +13183,13 @@
         <v>956</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -13192,13 +13198,13 @@
         <v>6628</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M38" s="7">
         <v>11</v>
@@ -13207,13 +13213,13 @@
         <v>7584</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -13234,7 +13240,7 @@
         <v>23</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -13243,13 +13249,13 @@
         <v>657</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -13258,13 +13264,13 @@
         <v>657</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -13279,13 +13285,13 @@
         <v>2472</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -13294,13 +13300,13 @@
         <v>4463</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
@@ -13309,13 +13315,13 @@
         <v>6935</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -13330,14 +13336,14 @@
         <v>3519</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
@@ -13351,7 +13357,7 @@
         <v>23</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -13360,13 +13366,13 @@
         <v>3519</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13387,37 +13393,37 @@
         <v>23</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13485,13 +13491,13 @@
         <v>777</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -13500,13 +13506,13 @@
         <v>1547</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
@@ -13515,13 +13521,13 @@
         <v>2325</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13536,28 +13542,28 @@
         <v>658</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -13566,13 +13572,13 @@
         <v>658</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -13608,7 +13614,7 @@
         <v>23</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -13692,10 +13698,10 @@
         <v>404</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H48" s="7">
         <v>11</v>
@@ -13704,13 +13710,13 @@
         <v>6718</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M48" s="7">
         <v>18</v>
@@ -13719,13 +13725,13 @@
         <v>11222</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -13740,13 +13746,13 @@
         <v>688</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
@@ -13755,13 +13761,13 @@
         <v>3253</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M49" s="7">
         <v>6</v>
@@ -13770,13 +13776,13 @@
         <v>3941</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13791,13 +13797,13 @@
         <v>2041</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="G50" s="7" t="s">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="H50" s="7">
         <v>9</v>
@@ -13806,13 +13812,13 @@
         <v>5730</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M50" s="7">
         <v>12</v>
@@ -13821,13 +13827,13 @@
         <v>7771</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13842,13 +13848,13 @@
         <v>1395</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -13857,13 +13863,13 @@
         <v>427</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M51" s="7">
         <v>3</v>
@@ -13872,13 +13878,13 @@
         <v>1822</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -13914,7 +13920,7 @@
         <v>23</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -13997,13 +14003,13 @@
         <v>777</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H54" s="7">
         <v>3</v>
@@ -14012,13 +14018,13 @@
         <v>1943</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M54" s="7">
         <v>4</v>
@@ -14027,13 +14033,13 @@
         <v>2720</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14048,13 +14054,13 @@
         <v>658</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -14063,13 +14069,13 @@
         <v>437</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M55" s="7">
         <v>2</v>
@@ -14078,13 +14084,13 @@
         <v>1096</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14099,13 +14105,13 @@
         <v>361</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -14114,13 +14120,13 @@
         <v>583</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -14129,13 +14135,13 @@
         <v>944</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14150,13 +14156,13 @@
         <v>15373</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>300</v>
+        <v>454</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H57" s="7">
         <v>94</v>
@@ -14165,13 +14171,13 @@
         <v>48382</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>335</v>
+        <v>456</v>
       </c>
       <c r="K57" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M57" s="7">
         <v>117</v>
@@ -14180,13 +14186,13 @@
         <v>63755</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -14201,13 +14207,13 @@
         <v>9783</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H58" s="7">
         <v>47</v>
@@ -14216,13 +14222,13 @@
         <v>26460</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M58" s="7">
         <v>63</v>
@@ -14231,10 +14237,10 @@
         <v>36242</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>469</v>
@@ -14282,13 +14288,13 @@
         <v>6257</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -14303,13 +14309,13 @@
         <v>11968</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H60" s="7">
         <v>45</v>
@@ -14318,13 +14324,13 @@
         <v>26295</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M60" s="7">
         <v>63</v>
@@ -14333,13 +14339,13 @@
         <v>38263</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14354,13 +14360,13 @@
         <v>5739</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H61" s="7">
         <v>10</v>
@@ -14369,13 +14375,13 @@
         <v>5201</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>368</v>
+        <v>491</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M61" s="7">
         <v>17</v>
@@ -14384,13 +14390,13 @@
         <v>10940</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14426,7 +14432,7 @@
         <v>23</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -14441,7 +14447,7 @@
         <v>23</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P56S2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P56S2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39421070-D262-4951-92B6-38B73CD721BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42E4B2D5-7CAA-4C16-9AFA-0CA7017C6570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E0D00EE-63BD-409D-90E4-70F16EB71AC9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17F0D3C9-0F5B-42A7-8236-09484F52527F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="501">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,06%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ayuda pública: Otro</t>
@@ -101,10 +101,10 @@
     <t>Su pareja</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -125,7 +125,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -173,13 +173,13 @@
     <t>18,15%</t>
   </si>
   <si>
-    <t>69,85%</t>
+    <t>69,43%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>52,59%</t>
+    <t>64,74%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -194,16 +194,19 @@
     <t>50,94%</t>
   </si>
   <si>
-    <t>16,61%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>50,51%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>50,78%</t>
@@ -212,16 +215,16 @@
     <t>30,91%</t>
   </si>
   <si>
-    <t>81,04%</t>
+    <t>80,74%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -233,946 +236,952 @@
     <t>33,74%</t>
   </si>
   <si>
-    <t>83,17%</t>
+    <t>84,89%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>11,0%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2016 (Tasa respuesta: 0,3%)</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
   </si>
   <si>
     <t>9,8%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2015 (Tasa respuesta: 0,3%)</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,18%)</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
   </si>
   <si>
     <t>70,65%</t>
@@ -1944,7 +1953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54450767-700C-43EA-9029-75125FCCC9C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3D1FD3-2CA8-429A-B3A5-2EDE2C055BE8}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4969,7 +4978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE76025-1779-4A6F-BA67-4C74DCFF3E5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC47B3C-921A-4E57-A015-677100313977}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5759,7 +5768,7 @@
         <v>51</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -5768,13 +5777,13 @@
         <v>4313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,7 +5900,7 @@
         <v>1090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>22</v>
@@ -5906,13 +5915,13 @@
         <v>1976</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5921,13 +5930,13 @@
         <v>3066</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,7 +6142,7 @@
         <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6193,7 @@
         <v>23</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,7 +6244,7 @@
         <v>23</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,7 +6259,7 @@
         <v>1157</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>22</v>
@@ -6265,13 +6274,13 @@
         <v>2189</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -6280,13 +6289,13 @@
         <v>3346</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,7 +6310,7 @@
         <v>1101</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>22</v>
@@ -6316,13 +6325,13 @@
         <v>2085</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -6331,13 +6340,13 @@
         <v>3186</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,7 +6397,7 @@
         <v>23</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,7 +6412,7 @@
         <v>1168</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>22</v>
@@ -6418,13 +6427,13 @@
         <v>2213</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6433,13 +6442,13 @@
         <v>3381</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,7 +6499,7 @@
         <v>23</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,7 +6550,7 @@
         <v>23</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6778,13 @@
         <v>986</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -6784,13 +6793,13 @@
         <v>986</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6827,13 @@
         <v>3139</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -6833,13 +6842,13 @@
         <v>3139</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6876,13 @@
         <v>1091</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -6882,13 +6891,13 @@
         <v>1091</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6925,13 @@
         <v>1091</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -6931,13 +6940,13 @@
         <v>1091</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7023,13 @@
         <v>1109</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -7029,13 +7038,13 @@
         <v>1109</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,7 +7131,7 @@
         <v>23</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7137,7 +7146,7 @@
         <v>23</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,7 +7182,7 @@
         <v>23</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -7188,7 +7197,7 @@
         <v>23</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,7 +7233,7 @@
         <v>23</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7239,7 +7248,7 @@
         <v>23</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,13 +7278,13 @@
         <v>5104</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -7284,13 +7293,13 @@
         <v>5104</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,7 +7314,7 @@
         <v>2021</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>22</v>
@@ -7320,13 +7329,13 @@
         <v>992</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
@@ -7335,13 +7344,13 @@
         <v>3013</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,7 +7386,7 @@
         <v>23</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -7392,7 +7401,7 @@
         <v>23</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,7 +7416,7 @@
         <v>957</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>22</v>
@@ -7422,13 +7431,13 @@
         <v>3137</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M50" s="7">
         <v>4</v>
@@ -7437,13 +7446,13 @@
         <v>4094</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7467,13 @@
         <v>1035</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -7479,7 +7488,7 @@
         <v>23</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -7488,13 +7497,13 @@
         <v>1035</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,7 +7539,7 @@
         <v>23</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -7545,7 +7554,7 @@
         <v>23</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,7 +7628,7 @@
         <v>23</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -7628,13 +7637,13 @@
         <v>1160</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -7643,13 +7652,13 @@
         <v>1160</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7670,7 +7679,7 @@
         <v>23</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7685,7 +7694,7 @@
         <v>23</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -7700,7 +7709,7 @@
         <v>23</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,7 +7730,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7736,7 +7745,7 @@
         <v>23</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -7751,7 +7760,7 @@
         <v>23</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7775,13 @@
         <v>2213</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H57" s="7">
         <v>12</v>
@@ -7781,13 +7790,13 @@
         <v>12708</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M57" s="7">
         <v>14</v>
@@ -7796,13 +7805,13 @@
         <v>14921</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7826,13 @@
         <v>3122</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H58" s="7">
         <v>5</v>
@@ -7832,13 +7841,13 @@
         <v>6215</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M58" s="7">
         <v>8</v>
@@ -7847,13 +7856,13 @@
         <v>9337</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,7 +7883,7 @@
         <v>23</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -7883,13 +7892,13 @@
         <v>1091</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -7898,13 +7907,13 @@
         <v>1091</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,13 +7928,13 @@
         <v>3215</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H60" s="7">
         <v>8</v>
@@ -7934,13 +7943,13 @@
         <v>8417</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M60" s="7">
         <v>11</v>
@@ -7949,13 +7958,13 @@
         <v>11632</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -7970,13 +7979,13 @@
         <v>1035</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -7991,7 +8000,7 @@
         <v>23</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -8000,13 +8009,13 @@
         <v>1035</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8027,7 +8036,7 @@
         <v>23</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
@@ -8036,13 +8045,13 @@
         <v>1109</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -8051,13 +8060,13 @@
         <v>1109</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,7 +8143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008C88E0-2E09-44A9-BA8A-8164CC73020C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F9301D-CE59-42D1-96E2-4FDD6B620373}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8151,7 +8160,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8411,7 +8420,7 @@
         <v>845</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -8441,7 +8450,7 @@
         <v>2008</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>22</v>
@@ -8564,7 +8573,7 @@
         <v>998</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>22</v>
@@ -8594,7 +8603,7 @@
         <v>999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>22</v>
@@ -8785,7 +8794,7 @@
         <v>1205</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
@@ -8800,13 +8809,13 @@
         <v>1205</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,7 +8932,7 @@
         <v>802</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
@@ -8953,13 +8962,13 @@
         <v>802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8989,7 +8998,7 @@
         <v>1205</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>22</v>
@@ -9004,13 +9013,13 @@
         <v>1205</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9091,7 +9100,7 @@
         <v>1205</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>22</v>
@@ -9106,13 +9115,13 @@
         <v>1205</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9127,7 +9136,7 @@
         <v>1741</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>22</v>
@@ -9157,13 +9166,13 @@
         <v>1741</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9810,7 +9819,7 @@
         <v>23</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9861,7 +9870,7 @@
         <v>23</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9912,7 +9921,7 @@
         <v>23</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9942,7 +9951,7 @@
         <v>1698</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>22</v>
@@ -9957,13 +9966,13 @@
         <v>1698</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10014,7 +10023,7 @@
         <v>23</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10065,7 +10074,7 @@
         <v>23</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10080,7 +10089,7 @@
         <v>869</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>22</v>
@@ -10110,13 +10119,13 @@
         <v>869</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10131,7 +10140,7 @@
         <v>1779</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>22</v>
@@ -10146,7 +10155,7 @@
         <v>1022</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>22</v>
@@ -10161,10 +10170,10 @@
         <v>2801</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>25</v>
@@ -10218,7 +10227,7 @@
         <v>23</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10316,13 +10325,13 @@
         <v>791</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10373,7 +10382,7 @@
         <v>23</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10424,7 +10433,7 @@
         <v>23</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10454,13 +10463,13 @@
         <v>1286</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -10469,13 +10478,13 @@
         <v>1285</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10505,13 +10514,13 @@
         <v>1233</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -10520,13 +10529,13 @@
         <v>1233</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10556,13 +10565,13 @@
         <v>1213</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -10571,13 +10580,13 @@
         <v>1213</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10607,13 +10616,13 @@
         <v>2097</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -10622,13 +10631,13 @@
         <v>2097</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10679,7 +10688,7 @@
         <v>23</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10730,7 +10739,7 @@
         <v>23</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10798,13 +10807,13 @@
         <v>791</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -10813,13 +10822,13 @@
         <v>1205</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -10828,13 +10837,13 @@
         <v>1996</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10855,7 +10864,7 @@
         <v>23</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -10870,7 +10879,7 @@
         <v>23</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -10885,7 +10894,7 @@
         <v>23</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10906,7 +10915,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -10921,7 +10930,7 @@
         <v>23</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -10936,7 +10945,7 @@
         <v>23</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10951,13 +10960,13 @@
         <v>1646</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H57" s="7">
         <v>4</v>
@@ -10966,13 +10975,13 @@
         <v>5358</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M57" s="7">
         <v>6</v>
@@ -10981,13 +10990,13 @@
         <v>7004</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -11008,7 +11017,7 @@
         <v>23</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -11017,13 +11026,13 @@
         <v>2438</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M58" s="7">
         <v>2</v>
@@ -11032,13 +11041,13 @@
         <v>2438</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -11059,7 +11068,7 @@
         <v>23</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -11068,13 +11077,13 @@
         <v>1213</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -11083,13 +11092,13 @@
         <v>1213</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -11104,13 +11113,13 @@
         <v>1868</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -11119,13 +11128,13 @@
         <v>3302</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M60" s="7">
         <v>4</v>
@@ -11134,13 +11143,13 @@
         <v>5169</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -11155,13 +11164,13 @@
         <v>3521</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -11170,13 +11179,13 @@
         <v>1022</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M61" s="7">
         <v>5</v>
@@ -11185,13 +11194,13 @@
         <v>4542</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -11212,7 +11221,7 @@
         <v>23</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -11227,7 +11236,7 @@
         <v>23</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -11242,7 +11251,7 @@
         <v>23</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -11319,7 +11328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C25F938-751E-4FE6-A9D4-8F8B88BECA3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A13CE5-32C4-429A-A959-4B97B3BDC8E0}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11336,7 +11345,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11464,7 +11473,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -11479,7 +11488,7 @@
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -11509,13 +11518,13 @@
         <v>437</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -11524,13 +11533,13 @@
         <v>437</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11560,13 +11569,13 @@
         <v>583</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -11575,13 +11584,13 @@
         <v>583</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11596,7 +11605,7 @@
         <v>717</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
@@ -11611,13 +11620,13 @@
         <v>4153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -11626,13 +11635,13 @@
         <v>4870</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -11647,7 +11656,7 @@
         <v>350</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
@@ -11662,13 +11671,13 @@
         <v>581</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -11677,13 +11686,13 @@
         <v>930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11719,7 +11728,7 @@
         <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -11734,7 +11743,7 @@
         <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11770,7 +11779,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -11785,7 +11794,7 @@
         <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11815,13 +11824,13 @@
         <v>430</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -11830,13 +11839,13 @@
         <v>430</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11872,7 +11881,7 @@
         <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -11887,7 +11896,7 @@
         <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11961,7 +11970,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -11970,13 +11979,13 @@
         <v>396</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -11985,13 +11994,13 @@
         <v>396</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -12012,7 +12021,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -12027,7 +12036,7 @@
         <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -12042,7 +12051,7 @@
         <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -12057,28 +12066,28 @@
         <v>361</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -12087,13 +12096,13 @@
         <v>361</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12108,13 +12117,13 @@
         <v>6682</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -12123,13 +12132,13 @@
         <v>9300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -12138,13 +12147,13 @@
         <v>15982</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -12159,13 +12168,13 @@
         <v>3155</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -12174,13 +12183,13 @@
         <v>5084</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -12189,13 +12198,13 @@
         <v>8239</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12216,7 +12225,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -12231,7 +12240,7 @@
         <v>23</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -12246,7 +12255,7 @@
         <v>23</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12261,13 +12270,13 @@
         <v>2398</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -12276,13 +12285,13 @@
         <v>5122</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -12291,13 +12300,13 @@
         <v>7520</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12318,7 +12327,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -12327,13 +12336,13 @@
         <v>982</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -12342,13 +12351,13 @@
         <v>982</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -12369,7 +12378,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -12384,7 +12393,7 @@
         <v>23</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -12399,7 +12408,7 @@
         <v>23</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -12473,7 +12482,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -12488,7 +12497,7 @@
         <v>23</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -12503,7 +12512,7 @@
         <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -12524,7 +12533,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -12539,7 +12548,7 @@
         <v>23</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -12554,7 +12563,7 @@
         <v>23</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12575,7 +12584,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -12590,7 +12599,7 @@
         <v>23</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -12605,7 +12614,7 @@
         <v>23</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12620,13 +12629,13 @@
         <v>4068</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H27" s="7">
         <v>26</v>
@@ -12635,13 +12644,13 @@
         <v>14156</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -12650,13 +12659,13 @@
         <v>18224</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -12671,13 +12680,13 @@
         <v>818</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -12686,13 +12695,13 @@
         <v>7449</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -12701,13 +12710,13 @@
         <v>8267</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12728,7 +12737,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -12737,13 +12746,13 @@
         <v>1660</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -12752,13 +12761,13 @@
         <v>1660</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12773,13 +12782,13 @@
         <v>5057</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -12788,13 +12797,13 @@
         <v>10980</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -12803,13 +12812,13 @@
         <v>16037</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -12824,13 +12833,13 @@
         <v>825</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -12839,13 +12848,13 @@
         <v>3363</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -12854,13 +12863,13 @@
         <v>4188</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12881,7 +12890,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -12896,7 +12905,7 @@
         <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -12911,7 +12920,7 @@
         <v>23</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12985,7 +12994,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -13000,7 +13009,7 @@
         <v>23</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -13015,7 +13024,7 @@
         <v>23</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -13036,7 +13045,7 @@
         <v>23</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -13051,7 +13060,7 @@
         <v>23</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -13066,7 +13075,7 @@
         <v>23</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -13087,7 +13096,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -13102,7 +13111,7 @@
         <v>23</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -13117,7 +13126,7 @@
         <v>23</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13132,13 +13141,13 @@
         <v>2044</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -13147,13 +13156,13 @@
         <v>8369</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -13162,13 +13171,13 @@
         <v>10412</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13183,13 +13192,13 @@
         <v>956</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -13198,13 +13207,13 @@
         <v>6628</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M38" s="7">
         <v>11</v>
@@ -13213,13 +13222,13 @@
         <v>7584</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -13240,7 +13249,7 @@
         <v>23</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -13249,13 +13258,13 @@
         <v>657</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -13264,13 +13273,13 @@
         <v>657</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -13285,13 +13294,13 @@
         <v>2472</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H40" s="7">
         <v>7</v>
@@ -13300,13 +13309,13 @@
         <v>4463</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
@@ -13315,13 +13324,13 @@
         <v>6935</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>376</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -13336,13 +13345,13 @@
         <v>3519</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>71</v>
+        <v>380</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -13357,7 +13366,7 @@
         <v>23</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -13366,13 +13375,13 @@
         <v>3519</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13393,7 +13402,7 @@
         <v>23</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -13408,7 +13417,7 @@
         <v>23</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -13423,7 +13432,7 @@
         <v>23</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13491,13 +13500,13 @@
         <v>777</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -13506,13 +13515,13 @@
         <v>1547</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
@@ -13521,13 +13530,13 @@
         <v>2325</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13542,13 +13551,13 @@
         <v>658</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -13563,7 +13572,7 @@
         <v>23</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -13572,13 +13581,13 @@
         <v>658</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -13599,23 +13608,23 @@
         <v>23</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="M46" s="7">
         <v>0</v>
       </c>
@@ -13629,7 +13638,7 @@
         <v>23</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13644,13 +13653,13 @@
         <v>1861</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H47" s="7">
         <v>22</v>
@@ -13659,13 +13668,13 @@
         <v>12405</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M47" s="7">
         <v>25</v>
@@ -13674,13 +13683,13 @@
         <v>14265</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13695,13 +13704,13 @@
         <v>4504</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H48" s="7">
         <v>11</v>
@@ -13710,13 +13719,13 @@
         <v>6718</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M48" s="7">
         <v>18</v>
@@ -13725,13 +13734,13 @@
         <v>11222</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -13746,13 +13755,13 @@
         <v>688</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
@@ -13761,13 +13770,13 @@
         <v>3253</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M49" s="7">
         <v>6</v>
@@ -13776,13 +13785,13 @@
         <v>3941</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13797,13 +13806,13 @@
         <v>2041</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H50" s="7">
         <v>9</v>
@@ -13812,13 +13821,13 @@
         <v>5730</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M50" s="7">
         <v>12</v>
@@ -13827,13 +13836,13 @@
         <v>7771</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13848,13 +13857,13 @@
         <v>1395</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -13863,13 +13872,13 @@
         <v>427</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M51" s="7">
         <v>3</v>
@@ -13878,13 +13887,13 @@
         <v>1822</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -13905,23 +13914,23 @@
         <v>23</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="M52" s="7">
         <v>0</v>
       </c>
@@ -13935,7 +13944,7 @@
         <v>23</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -14003,13 +14012,13 @@
         <v>777</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H54" s="7">
         <v>3</v>
@@ -14018,13 +14027,13 @@
         <v>1943</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M54" s="7">
         <v>4</v>
@@ -14033,13 +14042,13 @@
         <v>2720</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14054,13 +14063,13 @@
         <v>658</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -14069,13 +14078,13 @@
         <v>437</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M55" s="7">
         <v>2</v>
@@ -14084,13 +14093,13 @@
         <v>1096</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14105,13 +14114,13 @@
         <v>361</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -14120,13 +14129,13 @@
         <v>583</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -14135,13 +14144,13 @@
         <v>944</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14156,13 +14165,13 @@
         <v>15373</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H57" s="7">
         <v>94</v>
@@ -14171,13 +14180,13 @@
         <v>48382</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M57" s="7">
         <v>117</v>
@@ -14186,13 +14195,13 @@
         <v>63755</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -14207,13 +14216,13 @@
         <v>9783</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H58" s="7">
         <v>47</v>
@@ -14222,13 +14231,13 @@
         <v>26460</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M58" s="7">
         <v>63</v>
@@ -14237,13 +14246,13 @@
         <v>36242</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -14258,13 +14267,13 @@
         <v>688</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H59" s="7">
         <v>9</v>
@@ -14273,13 +14282,13 @@
         <v>5569</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M59" s="7">
         <v>10</v>
@@ -14288,13 +14297,13 @@
         <v>6257</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -14309,13 +14318,13 @@
         <v>11968</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H60" s="7">
         <v>45</v>
@@ -14324,13 +14333,13 @@
         <v>26295</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M60" s="7">
         <v>63</v>
@@ -14339,13 +14348,13 @@
         <v>38263</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14360,13 +14369,13 @@
         <v>5739</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H61" s="7">
         <v>10</v>
@@ -14375,13 +14384,13 @@
         <v>5201</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M61" s="7">
         <v>17</v>
@@ -14390,13 +14399,13 @@
         <v>10940</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14417,7 +14426,7 @@
         <v>23</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -14432,7 +14441,7 @@
         <v>23</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -14447,7 +14456,7 @@
         <v>23</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
